--- a/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
+++ b/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
@@ -1,46 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Compressed\web-program\web-program\project\uploads\70\7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4DBD1-E376-4894-9178-3B9D12E9CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
   </futureMetadata>
-  <cellMetadata count="1">
+  <valueMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
-  </cellMetadata>
+  </valueMetadata>
 </metadata>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,11 +103,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,40 +503,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:B9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>5</v>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
+    <ignoredError sqref="A1:A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
+++ b/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
@@ -1,81 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Compressed\web-program\web-program\project\uploads\70\7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4DBD1-E376-4894-9178-3B9D12E9CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
     </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
-  </valueMetadata>
+  </cellMetadata>
 </metadata>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,83 +68,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,50 +396,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2">
+      <c r="A2" t="str">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3">
+      <c r="A3" t="str">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A5" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
+++ b/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
@@ -1,46 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D6230-9599-4C7F-AE1B-34125547FD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7596" yWindow="1404" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,14 +68,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2695575" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6751320" y="518160"/>
+          <a:ext cx="2695575" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243002</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B145DE88-F01D-9090-781E-F0ED1DA64310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="754380"/>
+          <a:ext cx="6026582" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,30 +501,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
-  </ignoredErrors>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
+++ b/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D6230-9599-4C7F-AE1B-34125547FD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="7596" yWindow="1404" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>图片</t>
+  </si>
   <si>
     <t>2</t>
   </si>
@@ -23,28 +22,20 @@
     <t>3</t>
   </si>
   <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,7 +62,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -88,17 +79,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2695575" cy="3810000"/>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="1" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -117,58 +113,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6751320" y="518160"/>
-          <a:ext cx="2695575" cy="3810000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>243002</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B145DE88-F01D-9090-781E-F0ED1DA64310}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="312420" y="754380"/>
-          <a:ext cx="6026582" cy="10058400"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,34 +447,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
+++ b/project/uploads/70/7/REVIEW_ReviewResult_63_7.xlsx
@@ -87,9 +87,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
